--- a/ReportTechOut.xlsx
+++ b/ReportTechOut.xlsx
@@ -16,14 +16,17 @@
     <definedName name="_xlnm.Print_Area_0_0" localSheetId="0">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0" localSheetId="0">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0_0" localSheetId="0">'Pág.1'!$A$1:$AJ$67</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0" localSheetId="0">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName name="_xlnm.Print_Area_0" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName name="_xlnm.Print_Area_0_0" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0_0" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName name="_xlnm.Print_Area_0" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName name="_xlnm.Print_Area_0_0" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName name="_xlnm.Print_Area_0_0_0_0" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
+    <definedName name="_xlnm.Print_Area_0_0_0_0_0" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Pág.1'!$A$1:$AJ$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Pág.2'!$A$1:$AQ$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Pág.3'!$A$1:$AO$75</definedName>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>INFORME TECNICO</t>
   </si>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t>Ssd</t>
-  </si>
-  <si>
-    <t>https://app.sendit.cl/Files/FormEntry/45206-57573490-e4e9-46b0-85bc-a78a01471c8e</t>
   </si>
   <si>
     <t>Tipo de Equipo</t>
@@ -176,6 +176,9 @@
     <t>Foto 4</t>
   </si>
   <si>
+    <t>L AS LEFT 2</t>
+  </si>
+  <si>
     <t>Rev.1</t>
   </si>
   <si>
@@ -200,6 +203,12 @@
   </si>
   <si>
     <t>Valor referencial o estandar</t>
+  </si>
+  <si>
+    <t>part L</t>
+  </si>
+  <si>
+    <t>Par L</t>
   </si>
   <si>
     <t>E. Comentarios /
@@ -229,6 +238,12 @@
     <t>Suministró</t>
   </si>
   <si>
+    <t>Zxx</t>
+  </si>
+  <si>
+    <t>Algun nombre creo</t>
+  </si>
+  <si>
     <t>Reparaciones</t>
   </si>
   <si>
@@ -238,6 +253,9 @@
   <si>
     <t>Sujerancias /
 Recomendaciones</t>
+  </si>
+  <si>
+    <t>sdsd</t>
   </si>
   <si>
     <t>Pág. 2 de 3</t>
@@ -252,7 +270,13 @@
     <t>Foto 5</t>
   </si>
   <si>
+    <t>Foto anexo</t>
+  </si>
+  <si>
     <t>Foto 6</t>
+  </si>
+  <si>
+    <t>l2 anexo</t>
   </si>
   <si>
     <t>Foto 7</t>
@@ -737,8 +761,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -767,8 +791,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -798,11 +822,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2466975" cy="3286125"/>
+    <xdr:ext cx="4381500" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Foto1 As Found" descr="Foto1 As Found 1"/>
@@ -825,58 +849,23 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1028700" cy="352425"/>
+    <xdr:ext cx="4381500" cy="3286125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="4 Imagen" descr=""/>
+        <xdr:cNvPr id="4" name="Foto2 As Left" descr="Foto2 As Left"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1314450" cy="352425"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="5 Imagen" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -893,16 +882,16 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1095375" cy="352425"/>
+    <xdr:ext cx="1028700" cy="352425"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="4 Imagen" descr=""/>
@@ -942,6 +931,311 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1095375" cy="352425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="4 Imagen" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1314450" cy="352425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="5 Imagen" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Foto1 Anexo" descr="Foto1 Anexo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Foto2 Anexo" descr="Foto2 Anexo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Foto3 Anexo" descr="Foto3 Anexo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Foto4 Anexo" descr="Foto4 Anexo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Foto5 Anexo" descr="Foto5 Anexo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Foto6 Anexo" descr="Foto6 Anexo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Foto7 Anexo" descr="Foto7 Anexo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4381500" cy="3286125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Foto8 Anexo" descr="Foto8 Anexo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1252,7 +1546,7 @@
   <dimension ref="A1:AMK67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6465,8 +6759,8 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="10" t="s">
-        <v>5</v>
+      <c r="AC6" s="10">
+        <v>102</v>
       </c>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
@@ -7467,7 +7761,7 @@
     <row r="7" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -7477,7 +7771,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -7498,7 +7792,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
@@ -8499,7 +8793,7 @@
     <row r="8" spans="1:1025" customHeight="1" ht="18">
       <c r="A8" s="5"/>
       <c r="B8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -8509,7 +8803,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -8530,7 +8824,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
@@ -9531,7 +9825,7 @@
     <row r="9" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -9541,7 +9835,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -9552,7 +9846,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -9564,7 +9858,7 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
@@ -10565,7 +10859,7 @@
     <row r="10" spans="1:1025" customHeight="1" ht="20.25">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -10575,7 +10869,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -10586,7 +10880,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -10598,7 +10892,7 @@
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
@@ -12625,7 +12919,7 @@
     <row r="12" spans="1:1025" customHeight="1" ht="24" s="8" customFormat="1">
       <c r="A12" s="5"/>
       <c r="B12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -12633,7 +12927,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -12673,7 +12967,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -12686,7 +12980,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -13705,7 +13999,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -13718,7 +14012,7 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
@@ -16783,14 +17077,14 @@
     <row r="17" spans="1:1025" customHeight="1" ht="12.75" s="8" customFormat="1">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A18" s="3"/>
       <c r="B18" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -16809,7 +17103,7 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -32184,11 +32478,11 @@
     <row r="33" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A33" s="3"/>
       <c r="B33" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -32205,7 +32499,7 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T33" s="21"/>
       <c r="U33" s="22"/>
@@ -34242,7 +34536,7 @@
     <row r="35" spans="1:1025" customHeight="1" ht="16.5">
       <c r="A35" s="3"/>
       <c r="B35" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -34250,7 +34544,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -35272,7 +35566,7 @@
     <row r="36" spans="1:1025" customHeight="1" ht="27" s="8" customFormat="1">
       <c r="A36" s="5"/>
       <c r="B36" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -35280,7 +35574,7 @@
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -35288,14 +35582,14 @@
       <c r="L36" s="23"/>
       <c r="M36" s="23"/>
       <c r="N36" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
       <c r="R36" s="26"/>
       <c r="S36" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
@@ -35303,7 +35597,7 @@
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
       <c r="Y36" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z36" s="27"/>
       <c r="AA36" s="27"/>
@@ -35320,7 +35614,7 @@
     <row r="37" spans="1:1025" customHeight="1" ht="18">
       <c r="A37" s="3"/>
       <c r="B37" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -35328,7 +35622,7 @@
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -35516,7 +35810,7 @@
     <row r="42" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A42" s="3"/>
       <c r="B42" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -35524,7 +35818,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
@@ -35564,7 +35858,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -35577,7 +35871,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
@@ -35798,7 +36092,7 @@
     <row r="49" spans="1:1025" customHeight="1" ht="16.5">
       <c r="A49" s="3"/>
       <c r="B49" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -35838,7 +36132,7 @@
     <row r="50" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A50" s="3"/>
       <c r="B50" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -35857,7 +36151,7 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
       <c r="S50" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
@@ -36412,7 +36706,7 @@
     <row r="65" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A65" s="3"/>
       <c r="B65" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="22"/>
@@ -36431,10 +36725,12 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T65" s="21"/>
+      <c r="U65" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="T65" s="21"/>
-      <c r="U65" s="22"/>
       <c r="V65" s="22"/>
       <c r="W65" s="22"/>
       <c r="X65" s="22"/>
@@ -42837,7 +43133,7 @@
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
@@ -42853,7 +43149,7 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
       <c r="AA6" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB6" s="27"/>
       <c r="AC6" s="27"/>
@@ -42874,13 +43170,17 @@
     </row>
     <row r="7" spans="1:1025" customHeight="1" ht="19.5">
       <c r="A7" s="3"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -43010,7 +43310,7 @@
     <row r="10" spans="1:1025" customHeight="1" ht="47.75">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -43018,7 +43318,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -43059,7 +43359,7 @@
     <row r="11" spans="1:1025" customHeight="1" ht="27.6">
       <c r="A11" s="3"/>
       <c r="B11" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -43067,7 +43367,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -43198,7 +43498,7 @@
     <row r="14" spans="1:1025" customHeight="1" ht="15">
       <c r="A14" s="3"/>
       <c r="B14" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -43206,14 +43506,14 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
@@ -43239,7 +43539,7 @@
       <c r="AI14" s="45"/>
       <c r="AJ14" s="45"/>
       <c r="AK14" s="27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AL14" s="27"/>
       <c r="AM14" s="27"/>
@@ -43256,12 +43556,16 @@
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="46">
+        <v>1</v>
+      </c>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
-      <c r="M15" s="28"/>
+      <c r="M15" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
@@ -43285,7 +43589,9 @@
       <c r="AH15" s="28"/>
       <c r="AI15" s="28"/>
       <c r="AJ15" s="28"/>
-      <c r="AK15" s="46"/>
+      <c r="AK15" s="46" t="s">
+        <v>65</v>
+      </c>
       <c r="AL15" s="46"/>
       <c r="AM15" s="46"/>
       <c r="AN15" s="46"/>
@@ -43386,7 +43692,7 @@
     <row r="18" spans="1:1025" customHeight="1" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -43568,7 +43874,7 @@
     <row r="22" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A22" s="3"/>
       <c r="B22" s="23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -43705,14 +44011,16 @@
     <row r="25" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A25" s="3"/>
       <c r="B25" s="23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="28"/>
+      <c r="H25" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -45774,7 +46082,7 @@
       <c r="AL70" s="39"/>
       <c r="AM70" s="39"/>
       <c r="AN70" s="40" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO70" s="40"/>
       <c r="AP70" s="40"/>
@@ -45865,7 +46173,7 @@
   <dimension ref="A1:AMK75"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47082,7 +47390,7 @@
     <row r="5" spans="1:1025" customHeight="1" ht="17.25">
       <c r="A5" s="3"/>
       <c r="B5" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -47090,7 +47398,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -47792,7 +48100,7 @@
       <c r="AO20" s="54"/>
       <c r="AP20"/>
     </row>
-    <row r="21" spans="1:1025" customHeight="1" ht="100.05">
+    <row r="21" spans="1:1025" customHeight="1" ht="115">
       <c r="A21" s="3"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -47839,11 +48147,13 @@
     <row r="22" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A22" s="3"/>
       <c r="B22" s="21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
@@ -47860,10 +48170,12 @@
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="V22" s="21"/>
-      <c r="W22" s="22"/>
+      <c r="W22" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="X22" s="22"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
@@ -48544,7 +48856,7 @@
       <c r="AO37" s="4"/>
       <c r="AP37"/>
     </row>
-    <row r="38" spans="1:1025" customHeight="1" ht="68.45">
+    <row r="38" spans="1:1025" customHeight="1" ht="101.8">
       <c r="A38" s="3"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -48591,11 +48903,13 @@
     <row r="39" spans="1:1025" customHeight="1" ht="15">
       <c r="A39" s="3"/>
       <c r="B39" s="21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
+      <c r="E39" s="22">
+        <v>3</v>
+      </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
@@ -48612,10 +48926,12 @@
       <c r="S39" s="22"/>
       <c r="T39" s="22"/>
       <c r="U39" s="21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V39" s="21"/>
-      <c r="W39" s="22"/>
+      <c r="W39" s="22">
+        <v>4</v>
+      </c>
       <c r="X39" s="22"/>
       <c r="Y39" s="22"/>
       <c r="Z39" s="22"/>
@@ -49296,7 +49612,7 @@
       <c r="AO54" s="4"/>
       <c r="AP54"/>
     </row>
-    <row r="55" spans="1:1025" customHeight="1" ht="92.15000000000001">
+    <row r="55" spans="1:1025" customHeight="1" ht="112.35">
       <c r="A55" s="3"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -49343,11 +49659,13 @@
     <row r="56" spans="1:1025" customHeight="1" ht="17.25">
       <c r="A56" s="3"/>
       <c r="B56" s="21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
+      <c r="E56" s="22">
+        <v>5</v>
+      </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
@@ -49364,11 +49682,13 @@
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
       <c r="U56" s="21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
-      <c r="X56" s="22"/>
+      <c r="X56" s="22">
+        <v>6</v>
+      </c>
       <c r="Y56" s="22"/>
       <c r="Z56" s="22"/>
       <c r="AA56" s="22"/>
@@ -50095,11 +50415,13 @@
     <row r="73" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A73" s="3"/>
       <c r="B73" s="21" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
-      <c r="E73" s="22"/>
+      <c r="E73" s="22">
+        <v>7</v>
+      </c>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
@@ -50116,11 +50438,13 @@
       <c r="S73" s="22"/>
       <c r="T73" s="22"/>
       <c r="U73" s="21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="V73" s="21"/>
       <c r="W73" s="21"/>
-      <c r="X73" s="22"/>
+      <c r="X73" s="22">
+        <v>8</v>
+      </c>
       <c r="Y73" s="22"/>
       <c r="Z73" s="22"/>
       <c r="AA73" s="22"/>
@@ -50226,7 +50550,7 @@
       <c r="AJ75" s="39"/>
       <c r="AK75" s="39"/>
       <c r="AL75" s="40" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AM75" s="40"/>
       <c r="AN75" s="40"/>

--- a/ReportTechOut.xlsx
+++ b/ReportTechOut.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>INFORME TECNICO</t>
   </si>
@@ -249,6 +249,9 @@
   <si>
     <t>Mantenimiento /
 Inspecciones</t>
+  </si>
+  <si>
+    <t>kalza</t>
   </si>
   <si>
     <t>Sujerancias /
@@ -43821,7 +43824,9 @@
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
-      <c r="H22" s="29"/>
+      <c r="H22" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -43951,7 +43956,7 @@
     <row r="25" spans="1:1025" customHeight="1" ht="12.75">
       <c r="A25" s="2"/>
       <c r="B25" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -43959,7 +43964,7 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -46022,7 +46027,7 @@
       <c r="AL70" s="22"/>
       <c r="AM70" s="22"/>
       <c r="AN70" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AO70" s="23"/>
       <c r="AP70" s="23"/>
@@ -47330,7 +47335,7 @@
     <row r="5" spans="1:1025" customHeight="1" ht="17.25">
       <c r="A5" s="2"/>
       <c r="B5" s="35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -47338,7 +47343,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
       <c r="H5" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
@@ -48087,12 +48092,12 @@
     <row r="22" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A22" s="2"/>
       <c r="B22" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -48110,11 +48115,11 @@
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V22" s="24"/>
       <c r="W22" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" s="25"/>
       <c r="Y22" s="25"/>
@@ -48843,7 +48848,7 @@
     <row r="39" spans="1:1025" customHeight="1" ht="15">
       <c r="A39" s="2"/>
       <c r="B39" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -48866,7 +48871,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
       <c r="U39" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V39" s="24"/>
       <c r="W39" s="25">
@@ -49599,7 +49604,7 @@
     <row r="56" spans="1:1025" customHeight="1" ht="17.25">
       <c r="A56" s="2"/>
       <c r="B56" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -49622,7 +49627,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
       <c r="U56" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V56" s="24"/>
       <c r="W56" s="24"/>
@@ -50355,7 +50360,7 @@
     <row r="73" spans="1:1025" customHeight="1" ht="11.25">
       <c r="A73" s="2"/>
       <c r="B73" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -50378,7 +50383,7 @@
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
       <c r="U73" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V73" s="24"/>
       <c r="W73" s="24"/>
@@ -50490,7 +50495,7 @@
       <c r="AJ75" s="22"/>
       <c r="AK75" s="22"/>
       <c r="AL75" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM75" s="23"/>
       <c r="AN75" s="23"/>
